--- a/WspolczynnikLatwosci.xlsx
+++ b/WspolczynnikLatwosci.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/WspolczynnikLatwosci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7198C58-EF90-BF49-923D-D80FFCCEE509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F362F901-45B2-8B4B-BB1E-E036740E90D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A19A01E0-E20D-E04F-839C-6412FE883ACC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Klasa</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Współczynnik Łatwości</t>
+  </si>
+  <si>
+    <t>Trudność Zadania</t>
   </si>
 </sst>
 </file>
@@ -256,9 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,6 +293,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18357F2E-8B9D-8D4E-9C6C-D68C6B302B34}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,287 +623,371 @@
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>7</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>15</v>
       </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <f>(C4/($B$2*B4))/B4</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(D4&lt;0.2,"Bardzo Trudne","Trudne")</f>
+        <v>Bardzo Trudne</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <f>(C4/($B$2*B4))/B4</f>
+      <c r="D5" s="14">
+        <f t="shared" ref="D5:D23" si="0">(C5/($B$2*B5))/B5</f>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E23" si="1">IF(D5&lt;0.2,"Bardzo Trudne","Trudne")</f>
+        <v>Trudne</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Trudne</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Trudne</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Trudne</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Trudne</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:D23" si="0">(C5/($B$2*B5))/B5</f>
-        <v>2.1428571428571428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1428571428571428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2857142857142856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="2" t="e">
-        <f t="shared" si="0"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/WspolczynnikLatwosci.xlsx
+++ b/WspolczynnikLatwosci.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/WspolczynnikLatwosci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F362F901-45B2-8B4B-BB1E-E036740E90D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9400D802-CB3B-C649-AF0B-49E6F5423DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A19A01E0-E20D-E04F-839C-6412FE883ACC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17100" xr2:uid="{A19A01E0-E20D-E04F-839C-6412FE883ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/WspolczynnikLatwosci.xlsx
+++ b/WspolczynnikLatwosci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/WspolczynnikLatwosci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9400D802-CB3B-C649-AF0B-49E6F5423DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FF224C-AC7A-6540-8C49-D1A3E6084D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17100" xr2:uid="{A19A01E0-E20D-E04F-839C-6412FE883ACC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A19A01E0-E20D-E04F-839C-6412FE883ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Klasa</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Pkt za zadanie</t>
-  </si>
-  <si>
-    <t>Pkt do uzyskania na spr</t>
   </si>
   <si>
     <t>Liczba uzyskanych pkt za zad</t>
@@ -86,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -179,21 +182,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -207,21 +195,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -256,9 +229,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,16 +241,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,13 +253,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -313,6 +286,903 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B28-4842-AA7B-990D091956E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B28-4842-AA7B-990D091956E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="723697552"/>
+        <c:axId val="723699232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="723697552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723699232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="723699232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723697552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399E25C9-3DCD-1442-5480-C5EE1A8B9D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,7 +1485,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,371 +1497,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D8" si="0">(C4/($B$2))/B4</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>IF(D4&lt;0.2,"Bardzo Trudne","Trudne")</f>
+        <v>Trudne</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="12">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12">
-        <v>15</v>
-      </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14">
-        <f>(C4/($B$2*B4))/B4</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="E4" t="str">
-        <f>IF(D4&lt;0.2,"Bardzo Trudne","Trudne")</f>
-        <v>Bardzo Trudne</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" ref="D5:D23" si="0">(C5/($B$2*B5))/B5</f>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="14" t="str">
         <f t="shared" ref="E5:E23" si="1">IF(D5&lt;0.2,"Bardzo Trudne","Trudne")</f>
         <v>Trudne</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>7</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Trudne</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Trudne</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Trudne</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="E9" t="str">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <f>(C9/($B$2))/B9</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E9" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Trudne</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" t="e">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9" t="e">
+        <f t="shared" ref="D5:D23" si="2">(C10/($B$2*B10))/B10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" t="e">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" t="e">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" t="e">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" t="e">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" t="e">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" t="e">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" t="e">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" t="e">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" t="e">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" t="e">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" t="e">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" t="e">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" t="e">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WspolczynnikLatwosci.xlsx
+++ b/WspolczynnikLatwosci.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/WspolczynnikLatwosci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FF224C-AC7A-6540-8C49-D1A3E6084D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2085A2AF-14C1-ED46-9827-812FC6485F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A19A01E0-E20D-E04F-839C-6412FE883ACC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17100" activeTab="1" xr2:uid="{A19A01E0-E20D-E04F-839C-6412FE883ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Klasa</t>
   </si>
@@ -60,6 +83,9 @@
   <si>
     <t>Trudność Zadania</t>
   </si>
+  <si>
+    <t>suma</t>
+  </si>
 </sst>
 </file>
 
@@ -83,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +149,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,18 +265,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -250,13 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,6 +297,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -360,19 +423,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4.3478260869565216E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.19047619047619047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -406,7 +469,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,31 +1547,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18357F2E-8B9D-8D4E-9C6C-D68C6B302B34}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="12">
         <v>7</v>
       </c>
     </row>
@@ -1516,16 +1579,16 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1533,55 +1596,55 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="14">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D8" si="0">(C4/($B$2))/B4</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="14" t="str">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="E4" s="10" t="str">
         <f>IF(D4&lt;0.2,"Bardzo Trudne","Trudne")</f>
-        <v>Trudne</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E5" s="14" t="str">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="E5" s="10" t="str">
         <f t="shared" ref="E5:E23" si="1">IF(D5&lt;0.2,"Bardzo Trudne","Trudne")</f>
-        <v>Trudne</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="14" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Trudne</v>
       </c>
@@ -1590,36 +1653,36 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E7" s="14" t="str">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Trudne</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="E8" s="14" t="str">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Trudne</v>
       </c>
@@ -1628,17 +1691,17 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
         <f>(C9/($B$2))/B9</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="E9" s="14" t="str">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="E9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Bardzo Trudne</v>
       </c>
@@ -1647,148 +1710,166 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9" t="e">
-        <f t="shared" ref="D5:D23" si="2">(C10/($B$2*B10))/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="14" t="e">
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:D23" si="2">(C10/($B$2*B10))/B10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9" t="e">
+      <c r="B11" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9" t="e">
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9" t="e">
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9" t="e">
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="9" t="e">
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9" t="e">
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9" t="e">
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="9" t="e">
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>Bardzo Trudne</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="9" t="e">
+      <c r="B19" s="14"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="14" t="e">
+      <c r="E19" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1797,13 +1878,13 @@
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="9" t="e">
+      <c r="B20" s="14"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="14" t="e">
+      <c r="E20" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1812,13 +1893,13 @@
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="9" t="e">
+      <c r="B21" s="14"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="14" t="e">
+      <c r="E21" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1827,13 +1908,13 @@
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9" t="e">
+      <c r="B22" s="14"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="14" t="e">
+      <c r="E22" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1842,13 +1923,13 @@
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="9" t="e">
+      <c r="B23" s="14"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="14" t="e">
+      <c r="E23" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1857,4 +1938,1233 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1DB9EB-D2E7-304B-9423-2E3D5F31D5F7}">
+  <dimension ref="A1:AP21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="21"/>
+    <col min="3" max="3" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17">
+        <v>5</v>
+      </c>
+      <c r="I1" s="17">
+        <v>6</v>
+      </c>
+      <c r="J1" s="17">
+        <v>7</v>
+      </c>
+      <c r="K1" s="17">
+        <v>8</v>
+      </c>
+      <c r="L1" s="17">
+        <v>9</v>
+      </c>
+      <c r="M1" s="17">
+        <v>10</v>
+      </c>
+      <c r="N1" s="17">
+        <v>11</v>
+      </c>
+      <c r="O1" s="17">
+        <v>12</v>
+      </c>
+      <c r="P1" s="17">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="17">
+        <v>14</v>
+      </c>
+      <c r="R1" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <f>SUM(D2:R2)</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16">
+        <v>1</v>
+      </c>
+      <c r="N2" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>1</v>
+      </c>
+      <c r="S2" s="16">
+        <v>1</v>
+      </c>
+      <c r="T2" s="16">
+        <v>1</v>
+      </c>
+      <c r="V2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <f t="shared" ref="C3:C16" si="0">SUM(D3:R3)</f>
+        <v>11</v>
+      </c>
+      <c r="F3" s="25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1</v>
+      </c>
+      <c r="J3" s="25">
+        <v>1</v>
+      </c>
+      <c r="K3" s="25">
+        <v>1</v>
+      </c>
+      <c r="L3" s="25">
+        <v>1</v>
+      </c>
+      <c r="M3" s="25">
+        <v>1</v>
+      </c>
+      <c r="N3" s="25">
+        <v>1</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>1</v>
+      </c>
+      <c r="R3" s="25">
+        <v>1</v>
+      </c>
+      <c r="S3" s="25">
+        <v>1</v>
+      </c>
+      <c r="T3" s="25">
+        <v>1</v>
+      </c>
+      <c r="U3" s="25">
+        <v>1</v>
+      </c>
+      <c r="V3" s="25">
+        <v>1</v>
+      </c>
+      <c r="W3" s="25">
+        <v>1</v>
+      </c>
+      <c r="X3" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1</v>
+      </c>
+      <c r="N4" s="16">
+        <v>1</v>
+      </c>
+      <c r="O4" s="16">
+        <v>1</v>
+      </c>
+      <c r="P4" s="16">
+        <v>1</v>
+      </c>
+      <c r="U4" s="16">
+        <v>1</v>
+      </c>
+      <c r="V4" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <v>1</v>
+      </c>
+      <c r="L5" s="25">
+        <v>1</v>
+      </c>
+      <c r="O5" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>1</v>
+      </c>
+      <c r="R5" s="25">
+        <v>1</v>
+      </c>
+      <c r="S5" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="T6" s="16">
+        <v>1</v>
+      </c>
+      <c r="U6" s="16">
+        <v>1</v>
+      </c>
+      <c r="V6" s="16">
+        <v>1</v>
+      </c>
+      <c r="X6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1</v>
+      </c>
+      <c r="L7" s="25">
+        <v>1</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1</v>
+      </c>
+      <c r="N7" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>1</v>
+      </c>
+      <c r="R7" s="25">
+        <v>1</v>
+      </c>
+      <c r="S7" s="25">
+        <v>1</v>
+      </c>
+      <c r="T7" s="25">
+        <v>1</v>
+      </c>
+      <c r="U7" s="25">
+        <v>1</v>
+      </c>
+      <c r="V7" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>1</v>
+      </c>
+      <c r="R8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="I9" s="25">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25">
+        <v>2</v>
+      </c>
+      <c r="K9" s="25">
+        <v>2</v>
+      </c>
+      <c r="L9" s="25">
+        <v>1</v>
+      </c>
+      <c r="M9" s="25">
+        <v>1</v>
+      </c>
+      <c r="N9" s="25">
+        <v>1</v>
+      </c>
+      <c r="P9" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>2</v>
+      </c>
+      <c r="S9" s="25">
+        <v>1</v>
+      </c>
+      <c r="U9" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
+      <c r="O10" s="16">
+        <v>1</v>
+      </c>
+      <c r="P10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>1</v>
+      </c>
+      <c r="R10" s="16">
+        <v>1</v>
+      </c>
+      <c r="U10" s="16">
+        <v>1</v>
+      </c>
+      <c r="W10" s="16">
+        <v>1</v>
+      </c>
+      <c r="X10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1</v>
+      </c>
+      <c r="K11" s="25">
+        <v>1</v>
+      </c>
+      <c r="L11" s="25">
+        <v>1</v>
+      </c>
+      <c r="M11" s="25">
+        <v>1</v>
+      </c>
+      <c r="N11" s="25">
+        <v>1</v>
+      </c>
+      <c r="O11" s="25">
+        <v>1</v>
+      </c>
+      <c r="P11" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>1</v>
+      </c>
+      <c r="R11" s="25">
+        <v>1</v>
+      </c>
+      <c r="S11" s="25">
+        <v>1</v>
+      </c>
+      <c r="T11" s="25">
+        <v>1</v>
+      </c>
+      <c r="U11" s="25">
+        <v>1</v>
+      </c>
+      <c r="V11" s="25">
+        <v>1</v>
+      </c>
+      <c r="W11" s="25">
+        <v>1</v>
+      </c>
+      <c r="X11" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1</v>
+      </c>
+      <c r="O12" s="16">
+        <v>1</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1</v>
+      </c>
+      <c r="R12" s="16">
+        <v>1</v>
+      </c>
+      <c r="T12" s="16">
+        <v>1</v>
+      </c>
+      <c r="U12" s="16">
+        <v>1</v>
+      </c>
+      <c r="W12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
+        <v>1</v>
+      </c>
+      <c r="M13" s="25">
+        <v>1</v>
+      </c>
+      <c r="N13" s="25">
+        <v>1</v>
+      </c>
+      <c r="O13" s="25">
+        <v>1</v>
+      </c>
+      <c r="V13" s="25">
+        <v>1</v>
+      </c>
+      <c r="W13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16">
+        <v>1</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1</v>
+      </c>
+      <c r="N14" s="16">
+        <v>1</v>
+      </c>
+      <c r="O14" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>1</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1</v>
+      </c>
+      <c r="K15" s="25">
+        <v>1</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1</v>
+      </c>
+      <c r="N15" s="25">
+        <v>1</v>
+      </c>
+      <c r="O15" s="25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>1</v>
+      </c>
+      <c r="R15" s="25">
+        <v>1</v>
+      </c>
+      <c r="S15" s="25">
+        <v>1</v>
+      </c>
+      <c r="T15" s="25">
+        <v>1</v>
+      </c>
+      <c r="U15" s="25">
+        <v>1</v>
+      </c>
+      <c r="V15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>1</v>
+      </c>
+      <c r="R16" s="16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="16">
+        <v>1</v>
+      </c>
+      <c r="V16" s="16">
+        <v>1</v>
+      </c>
+      <c r="W16" s="16">
+        <v>1</v>
+      </c>
+      <c r="X16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="21">
+        <v>39</v>
+      </c>
+      <c r="C21" s="22" cm="1">
+        <f t="array" ref="C21">SUM((C2:C16)/(B21*15))*100</f>
+        <v>24.102564102564102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>